--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/142.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/142.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1828272545370194</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.605326247483198</v>
+        <v>-1.605408096477506</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04276519837601881</v>
+        <v>-0.04270223761116678</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1481741108912833</v>
+        <v>-0.1483519750519902</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1782138437655065</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.587618532368565</v>
+        <v>-1.587748388946073</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07283840770758976</v>
+        <v>-0.0727360964647052</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1223334389768899</v>
+        <v>-0.1225427835200229</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1853411225526216</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.636167578145964</v>
+        <v>-1.636288777618304</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1206476644979768</v>
+        <v>-0.1205327611021219</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1176082335747452</v>
+        <v>-0.1177923938119374</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2053149631298218</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.730059392750671</v>
+        <v>-1.730170361098723</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1477144973078635</v>
+        <v>-0.1476342223326771</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1285728507737258</v>
+        <v>-0.1287790472786162</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2298409226189556</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.760016124667266</v>
+        <v>-1.7600334388776</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1092076935243635</v>
+        <v>-0.1091872312757865</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1185636631813747</v>
+        <v>-0.1187493974376882</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2456623521567212</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.619892220431715</v>
+        <v>-1.619811158446968</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04469179778049085</v>
+        <v>-0.04467133553191394</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1192703977668387</v>
+        <v>-0.119434095755454</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2429978235188658</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.332185922354329</v>
+        <v>-1.332201662545542</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.00829890167689765</v>
+        <v>-0.008163536032465791</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1146616697796703</v>
+        <v>-0.1148867545140163</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2166887127342173</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9120873019652215</v>
+        <v>-0.9122462778964729</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.006348691985606099</v>
+        <v>-0.006010277874526451</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07450057189968327</v>
+        <v>-0.07473037869139318</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1618792027595121</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3871495639827602</v>
+        <v>-0.3875241805336297</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05191969358550361</v>
+        <v>-0.05148998636538853</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02705491352631665</v>
+        <v>-0.02727055414593484</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.0747896425215174</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1756756012589693</v>
+        <v>0.1751561749489401</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1093792616085852</v>
+        <v>-0.108744931902701</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05509786647173015</v>
+        <v>0.05487592977562675</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.0454571440507321</v>
       </c>
       <c r="E12" t="n">
-        <v>0.853372681973223</v>
+        <v>0.8526218748523626</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2369346231605504</v>
+        <v>-0.236116133217474</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1348423972141869</v>
+        <v>0.1345858320974149</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1918765159628457</v>
       </c>
       <c r="E13" t="n">
-        <v>1.545086402962659</v>
+        <v>1.544189212063518</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4401703980837738</v>
+        <v>-0.4392102464197805</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2535911217824747</v>
+        <v>0.253320390493611</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3533065366611357</v>
       </c>
       <c r="E14" t="n">
-        <v>2.267266838063992</v>
+        <v>2.266207523195356</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6702274588339611</v>
+        <v>-0.6692090684624795</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3740366389635246</v>
+        <v>0.3737045209289302</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.513543767153432</v>
       </c>
       <c r="E15" t="n">
-        <v>2.998362517468371</v>
+        <v>2.997139504611121</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9169258367440999</v>
+        <v>-0.9157673586708225</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4861335587251957</v>
+        <v>0.4857731083464178</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.66177284120394</v>
       </c>
       <c r="E16" t="n">
-        <v>3.619037607475265</v>
+        <v>3.61779728040768</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.19861151168251</v>
+        <v>-1.197169710167399</v>
       </c>
       <c r="G16" t="n">
-        <v>0.630493148416167</v>
+        <v>0.6299973323929573</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.805804337425696</v>
       </c>
       <c r="E17" t="n">
-        <v>4.212394021612864</v>
+        <v>4.211023050958211</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.451387964429552</v>
+        <v>-1.449719504160973</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7798266385304484</v>
+        <v>0.7792930460483275</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9574931542216771</v>
       </c>
       <c r="E18" t="n">
-        <v>4.741237688044833</v>
+        <v>4.739890327677</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.691979148149044</v>
+        <v>-1.690227264867036</v>
       </c>
       <c r="G18" t="n">
-        <v>0.915801428362251</v>
+        <v>0.9151985790387928</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.12021983976755</v>
       </c>
       <c r="E19" t="n">
-        <v>5.171058237536655</v>
+        <v>5.169665230614304</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.979554015629801</v>
+        <v>-1.977625055196647</v>
       </c>
       <c r="G19" t="n">
-        <v>1.060933861441781</v>
+        <v>1.060266477334349</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.282736146198201</v>
       </c>
       <c r="E20" t="n">
-        <v>5.508469698436034</v>
+        <v>5.507079839551926</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.232728695214531</v>
+        <v>-2.230726542892237</v>
       </c>
       <c r="G20" t="n">
-        <v>1.211606841828289</v>
+        <v>1.210939457720858</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.427050894755338</v>
       </c>
       <c r="E21" t="n">
-        <v>5.793245959919118</v>
+        <v>5.79184350888204</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.454341930388501</v>
+        <v>-2.452270521224869</v>
       </c>
       <c r="G21" t="n">
-        <v>1.348910103798469</v>
+        <v>1.348266329977857</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.543781678209875</v>
       </c>
       <c r="E22" t="n">
-        <v>5.999705326002766</v>
+        <v>5.998372131807024</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.660020582987983</v>
+        <v>-2.657926350547092</v>
       </c>
       <c r="G22" t="n">
-        <v>1.464188116204289</v>
+        <v>1.463495547790917</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.629012494884842</v>
       </c>
       <c r="E23" t="n">
-        <v>6.138716398719557</v>
+        <v>6.137274597204446</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.780821041480886</v>
+        <v>-2.778798426910015</v>
       </c>
       <c r="G23" t="n">
-        <v>1.563274193909289</v>
+        <v>1.562603661763615</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.680236453095589</v>
       </c>
       <c r="E24" t="n">
-        <v>6.242806283211172</v>
+        <v>6.241301520931208</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.854767672790032</v>
+        <v>-2.852867044701061</v>
       </c>
       <c r="G24" t="n">
-        <v>1.611067710508463</v>
+        <v>1.610397178362789</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.695543762841552</v>
       </c>
       <c r="E25" t="n">
-        <v>6.260800469805881</v>
+        <v>6.259276819296462</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.932816984938848</v>
+        <v>-2.930906125725589</v>
       </c>
       <c r="G25" t="n">
-        <v>1.662161945205004</v>
+        <v>1.661589002244851</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.675257972181075</v>
       </c>
       <c r="E26" t="n">
-        <v>6.249796502128868</v>
+        <v>6.248301183963632</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.994108502512736</v>
+        <v>-2.992267687150375</v>
       </c>
       <c r="G26" t="n">
-        <v>1.680721204664261</v>
+        <v>1.680149835723229</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.624253881782166</v>
       </c>
       <c r="E27" t="n">
-        <v>6.154086695439059</v>
+        <v>6.152597673350308</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.008378559866448</v>
+        <v>-3.00662588957488</v>
       </c>
       <c r="G27" t="n">
-        <v>1.687283290380964</v>
+        <v>1.686718217516417</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.547645817451089</v>
       </c>
       <c r="E28" t="n">
-        <v>5.99024704510287</v>
+        <v>5.988880796505581</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.0182917322924</v>
+        <v>-3.016577625469303</v>
       </c>
       <c r="G28" t="n">
-        <v>1.673203689340929</v>
+        <v>1.672685837050021</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.452563632055115</v>
       </c>
       <c r="E29" t="n">
-        <v>5.82008928201378</v>
+        <v>5.818795438296071</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.975818400323222</v>
+        <v>-2.974183781465751</v>
       </c>
       <c r="G29" t="n">
-        <v>1.636275626736093</v>
+        <v>1.635759348464307</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.345979494512771</v>
       </c>
       <c r="E30" t="n">
-        <v>5.627514338599126</v>
+        <v>5.62632123210518</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.947512814464872</v>
+        <v>-2.945978145821603</v>
       </c>
       <c r="G30" t="n">
-        <v>1.566754350186485</v>
+        <v>1.566294736603065</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.235158672739487</v>
       </c>
       <c r="E31" t="n">
-        <v>5.388447592398614</v>
+        <v>5.387333186860733</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.847430382656089</v>
+        <v>-2.846069643125724</v>
       </c>
       <c r="G31" t="n">
-        <v>1.492300097710719</v>
+        <v>1.491832614031693</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.126983486796671</v>
       </c>
       <c r="E32" t="n">
-        <v>5.156759847838759</v>
+        <v>5.155648590339121</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.785723324034177</v>
+        <v>-2.7843468443126</v>
       </c>
       <c r="G32" t="n">
-        <v>1.418930344409531</v>
+        <v>1.418491193074688</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.024353711428783</v>
       </c>
       <c r="E33" t="n">
-        <v>4.862463918710048</v>
+        <v>4.8613888636502</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.662248607054184</v>
+        <v>-2.660966568479885</v>
       </c>
       <c r="G33" t="n">
-        <v>1.345489760247883</v>
+        <v>1.34507421919986</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9304970088129416</v>
       </c>
       <c r="E34" t="n">
-        <v>4.602936497951748</v>
+        <v>4.601992086478968</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.585818173571626</v>
+        <v>-2.584570763417995</v>
       </c>
       <c r="G34" t="n">
-        <v>1.244779294809701</v>
+        <v>1.244388938067619</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.844691741043509</v>
       </c>
       <c r="E35" t="n">
-        <v>4.289675212430486</v>
+        <v>4.288878758755107</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.512864748328021</v>
+        <v>-2.511681085948803</v>
       </c>
       <c r="G35" t="n">
-        <v>1.153188696160335</v>
+        <v>1.152806209513859</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7648997803719938</v>
       </c>
       <c r="E36" t="n">
-        <v>3.950442611407761</v>
+        <v>3.949731154764933</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.417128183313149</v>
+        <v>-2.415976788325918</v>
       </c>
       <c r="G36" t="n">
-        <v>1.074024978473639</v>
+        <v>1.073740081012683</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6894010235625151</v>
       </c>
       <c r="E37" t="n">
-        <v>3.667202592587066</v>
+        <v>3.666565114842939</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.348789782133198</v>
+        <v>-2.347651766308497</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9872162499147844</v>
+        <v>0.9869124642243734</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6148568380701164</v>
       </c>
       <c r="E38" t="n">
-        <v>3.368149977673784</v>
+        <v>3.36769666016685</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.280834654609283</v>
+        <v>-2.27974149832954</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8981157495153165</v>
+        <v>0.8978591843985444</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5408692228086769</v>
       </c>
       <c r="E39" t="n">
-        <v>3.050730133634045</v>
+        <v>3.050350795025812</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.203850953405588</v>
+        <v>-2.202815248823772</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8101249325963654</v>
+        <v>0.8099045699193833</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4667408965078119</v>
       </c>
       <c r="E40" t="n">
-        <v>2.770348533537633</v>
+        <v>2.769931418470488</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.129824047121256</v>
+        <v>-2.128770241319545</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7434730929048877</v>
+        <v>0.74327004443824</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.393140780676175</v>
       </c>
       <c r="E41" t="n">
-        <v>2.473886754098012</v>
+        <v>2.473502693432414</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.07035052163247</v>
+        <v>-2.06938249987287</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6855853916808123</v>
+        <v>0.6854279897686822</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3218106769511546</v>
       </c>
       <c r="E42" t="n">
-        <v>2.198318504474536</v>
+        <v>2.198046199166551</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.985032389181488</v>
+        <v>-1.984157234550044</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6141878843386132</v>
+        <v>0.6140698329045156</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2532652282227569</v>
       </c>
       <c r="E43" t="n">
-        <v>1.945634918855652</v>
+        <v>1.945416130197791</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.922000793469002</v>
+        <v>-1.921083140321283</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5435411841172744</v>
+        <v>0.5433916523007508</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1895956722182415</v>
       </c>
       <c r="E44" t="n">
-        <v>1.743455310762821</v>
+        <v>1.743198745646049</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.870791655376605</v>
+        <v>-1.869892103448782</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4770152659555008</v>
+        <v>0.4768468459095216</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1311721092398614</v>
       </c>
       <c r="E45" t="n">
-        <v>1.531746590909636</v>
+        <v>1.531609651246083</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.785774160577791</v>
+        <v>-1.784890348841181</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4261413939359413</v>
+        <v>0.4260044542723881</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.07853850361675789</v>
       </c>
       <c r="E46" t="n">
-        <v>1.335331040839008</v>
+        <v>1.335159472754787</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.726631179104478</v>
+        <v>-1.725775699712051</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3749432739773938</v>
+        <v>0.3748488328301158</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.03204229259754977</v>
       </c>
       <c r="E47" t="n">
-        <v>1.181266049246097</v>
+        <v>1.181136979678151</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.695480553684377</v>
+        <v>-1.694639240464042</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3265248717870634</v>
+        <v>0.3263769139896611</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.009195195579285817</v>
       </c>
       <c r="E48" t="n">
-        <v>1.005035720387029</v>
+        <v>1.004950723354479</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.632807047321987</v>
+        <v>-1.63195156792956</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2557931745331744</v>
+        <v>0.2556924373094111</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.0455784681099527</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8586550901443082</v>
+        <v>0.8585637970352727</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.582499822186096</v>
+        <v>-1.581642768774547</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2213111376428402</v>
+        <v>0.221205678361713</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.07816942237333264</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7591282870853444</v>
+        <v>0.759021253785096</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.531171845650041</v>
+        <v>-1.530271506712657</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1793367697351147</v>
+        <v>0.1792139962436533</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1077522582037697</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6438187942970987</v>
+        <v>0.6437558335322465</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.493698385419675</v>
+        <v>-1.492794898444048</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1452104611661945</v>
+        <v>0.1450829656173692</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1346569380772286</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5359402457805134</v>
+        <v>0.5357985840595964</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.450172821667908</v>
+        <v>-1.449291370959979</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1061590467667245</v>
+        <v>0.1060897899253872</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1598722142339295</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4668313622406854</v>
+        <v>0.466609425544582</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.411051363417539</v>
+        <v>-1.410198245053795</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07402859444361352</v>
+        <v>0.07392156114336508</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1835137509225424</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3745135667572787</v>
+        <v>0.3742255212580807</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.358512966177205</v>
+        <v>-1.357589016953001</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04348317937565237</v>
+        <v>0.04339503430485954</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2060156326255574</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2837084036494421</v>
+        <v>0.2833463792515429</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.327004251407007</v>
+        <v>-1.326074793115879</v>
       </c>
       <c r="G55" t="n">
-        <v>0.00925770760209022</v>
+        <v>0.009226227219664207</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.226526970239336</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2193750941236403</v>
+        <v>0.2189501089608892</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.307046475958475</v>
+        <v>-1.306093407380528</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008311493829868056</v>
+        <v>-0.008391768805054392</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.245107998574284</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1434113573105479</v>
+        <v>0.1429706319565837</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.314072897315962</v>
+        <v>-1.313126124814499</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04418024156606813</v>
+        <v>-0.04425894252213317</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2619004035643718</v>
       </c>
       <c r="E58" t="n">
-        <v>0.07999570093246443</v>
+        <v>0.07952506921519553</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.294685703798901</v>
+        <v>-1.29377749476591</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07448640572759158</v>
+        <v>-0.07457297677926311</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2769480067880171</v>
       </c>
       <c r="E59" t="n">
-        <v>0.04233729345534547</v>
+        <v>0.04181157106883104</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.304978214833086</v>
+        <v>-1.304032229341185</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09928350296456261</v>
+        <v>-0.09934646372941464</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2903861191217251</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.01222450536542157</v>
+        <v>-0.01285411301394184</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.309490140644295</v>
+        <v>-1.30860160685032</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1042400891775385</v>
+        <v>-0.1043376783630591</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3019684381617722</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.0512224031147674</v>
+        <v>-0.05188349114571369</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.289682684021847</v>
+        <v>-1.288829565658102</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1353301148614696</v>
+        <v>-0.135410389836656</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.312138952325422</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.1051923707459254</v>
+        <v>-0.105886513178419</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.314157107338951</v>
+        <v>-1.313283526726629</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1431529898943341</v>
+        <v>-0.1432474310416121</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3214112858072428</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.149088616000759</v>
+        <v>-0.1497969246053443</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.353734244124936</v>
+        <v>-1.352822100044142</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1618602071509928</v>
+        <v>-0.1619263159540874</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3302034888327562</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2046751012694928</v>
+        <v>-0.2055172014993886</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.394791745894503</v>
+        <v>-1.393840251335677</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1778396492704373</v>
+        <v>-0.177952978647171</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3391761905589265</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2584121140706983</v>
+        <v>-0.2593407853522656</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.427713142826068</v>
+        <v>-1.426752204152514</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2031908012381062</v>
+        <v>-0.2032883904236268</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3484488066374297</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3250466395518415</v>
+        <v>-0.3259202201641634</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.470253370607901</v>
+        <v>-1.46934437456535</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2093310498303002</v>
+        <v>-0.209434935092306</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3581796772066933</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.313129740784474</v>
+        <v>-0.314113502735287</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.516749108441563</v>
+        <v>-1.515857426609346</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2424562822380732</v>
+        <v>-0.2425727596530494</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3679318725606968</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3394772468559263</v>
+        <v>-0.3403476794300055</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.546779032247298</v>
+        <v>-1.545831472736275</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2527125908324684</v>
+        <v>-0.2528196241327169</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.376666264849329</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3674349744884691</v>
+        <v>-0.3683148511772762</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.605789009104861</v>
+        <v>-1.604781636867228</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2583538753632101</v>
+        <v>-0.2584278542619112</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3842168802277305</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3937982207511343</v>
+        <v>-0.3946576351913645</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.624099573542952</v>
+        <v>-1.623115024582578</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2686873108945491</v>
+        <v>-0.2687628638123716</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3901641980226374</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.3999573575727839</v>
+        <v>-0.4007679774202538</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.661753258962707</v>
+        <v>-1.660691583065389</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2871537032256488</v>
+        <v>-0.2872135159522582</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3946688900512624</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.3978843743900309</v>
+        <v>-0.398665087874196</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.69418907099535</v>
+        <v>-1.693113228925941</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2846950853581771</v>
+        <v>-0.2847375838744522</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3974908083708759</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.358116781290369</v>
+        <v>-0.3588439781244099</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.719473327150363</v>
+        <v>-1.718435261539866</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2866248328008918</v>
+        <v>-0.2866232587817705</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3979145511363429</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3166649877309154</v>
+        <v>-0.3174032026988054</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.751776921576818</v>
+        <v>-1.75075144811929</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2913783705472198</v>
+        <v>-0.2913941107384329</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3958891064480279</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.252684258488285</v>
+        <v>-0.2533406244618674</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.771264852317641</v>
+        <v>-1.770218916611537</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2946948288358004</v>
+        <v>-0.2946680705107383</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3907840907205795</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1449316315014039</v>
+        <v>-0.1455738313028945</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.779489102226437</v>
+        <v>-1.778447101568136</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2774734856296496</v>
+        <v>-0.2774152469221615</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.382293722319844</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.05787578194050541</v>
+        <v>-0.05847390920659967</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.765786478765954</v>
+        <v>-1.764746052126775</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2638818305172181</v>
+        <v>-0.2637858153508188</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3698484896034157</v>
       </c>
       <c r="E78" t="n">
-        <v>0.07768818890063763</v>
+        <v>0.07716718857148709</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.769728609655252</v>
+        <v>-1.768690544044754</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2357005921694506</v>
+        <v>-0.2355573564294123</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3528378065803288</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2053316955233956</v>
+        <v>0.2048264353854581</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.798662229143001</v>
+        <v>-1.797627311570746</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2192615364665862</v>
+        <v>-0.2191387629751248</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3309128666760082</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3516588091159927</v>
+        <v>0.3511425308442061</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.756502126978962</v>
+        <v>-1.755558502515742</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1928620877641311</v>
+        <v>-0.1927109819284862</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3037334661053082</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4820112026465092</v>
+        <v>0.4815594591586959</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.735593643981165</v>
+        <v>-1.734770431980724</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1644227102804703</v>
+        <v>-0.1642873446360384</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2721256662140836</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6598470310093035</v>
+        <v>0.6592976983359695</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.696816895918361</v>
+        <v>-1.696081041979153</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1385993525764112</v>
+        <v>-0.1384813011423136</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.236757665021542</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8336785547275088</v>
+        <v>0.8332000529146335</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.628450949403787</v>
+        <v>-1.627820554745706</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1191838267151672</v>
+        <v>-0.1189917963823685</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1982721816526323</v>
       </c>
       <c r="E84" t="n">
-        <v>1.01476630659491</v>
+        <v>1.014226418036304</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.549949893767158</v>
+        <v>-1.549439911571857</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1031319797161428</v>
+        <v>-0.1029084690009181</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1578525525352378</v>
       </c>
       <c r="E85" t="n">
-        <v>1.161331097074824</v>
+        <v>1.160695193349818</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.445052537466316</v>
+        <v>-1.444589775844654</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.08262723262295874</v>
+        <v>-0.0823423351620033</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1169579510636625</v>
       </c>
       <c r="E86" t="n">
-        <v>1.323428308243733</v>
+        <v>1.322858513321822</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.328867103037067</v>
+        <v>-1.328505865648728</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05250050664126357</v>
+        <v>-0.05221403516118684</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.0781577125284756</v>
       </c>
       <c r="E87" t="n">
-        <v>1.463342867936151</v>
+        <v>1.46270066813466</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.19924033232147</v>
+        <v>-1.198928676535452</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02840069987502873</v>
+        <v>-0.0280953401654964</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.0440929454514264</v>
       </c>
       <c r="E88" t="n">
-        <v>1.554916152375182</v>
+        <v>1.554396726065153</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.054183452159762</v>
+        <v>-1.053968598549705</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01443600223084903</v>
+        <v>-0.01414953075077231</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.01710103949420736</v>
       </c>
       <c r="E89" t="n">
-        <v>1.6596639768595</v>
+        <v>1.659097329975832</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9096829877574347</v>
+        <v>-0.9096160919447794</v>
       </c>
       <c r="G89" t="n">
-        <v>0.009857408887305782</v>
+        <v>0.01017221271156592</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.0009840719544267768</v>
       </c>
       <c r="E90" t="n">
-        <v>1.703790028906044</v>
+        <v>1.703239122213589</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7198484116329653</v>
+        <v>-0.7199507228758498</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01161558824579865</v>
+        <v>0.01197446460545521</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.0007165052951768386</v>
       </c>
       <c r="E91" t="n">
-        <v>1.722577521137889</v>
+        <v>1.722165128128108</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5351073613850248</v>
+        <v>-0.5352301348764863</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.007041260398978401</v>
+        <v>-0.006731178632082166</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.01482482694291184</v>
       </c>
       <c r="E92" t="n">
-        <v>1.695521706461851</v>
+        <v>1.695158108044831</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.371601403102552</v>
+        <v>-0.3718013035309572</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.01021605696664189</v>
+        <v>-0.009868198740834437</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.04826061671613369</v>
       </c>
       <c r="E93" t="n">
-        <v>1.652776069184689</v>
+        <v>1.652473857513399</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2192961648872548</v>
+        <v>-0.2195212496216009</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.02606485549901852</v>
+        <v>-0.02577680999982049</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.0959187697221254</v>
       </c>
       <c r="E94" t="n">
-        <v>1.555053092038735</v>
+        <v>1.554812267113176</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.08131450067579396</v>
+        <v>-0.08158995402202157</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.03209177471447885</v>
+        <v>-0.03179743313879562</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1515143509000073</v>
       </c>
       <c r="E95" t="n">
-        <v>1.485004519083491</v>
+        <v>1.484781008368266</v>
       </c>
       <c r="F95" t="n">
-        <v>0.02543075407345479</v>
+        <v>0.02517733699492538</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.06793848618298071</v>
+        <v>-0.067667754894117</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2067311186668337</v>
       </c>
       <c r="E96" t="n">
-        <v>1.401156520491803</v>
+        <v>1.400969212216368</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1070499415893807</v>
+        <v>0.1067681921666678</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09707672815649904</v>
+        <v>-0.09680599686763533</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2539234821021311</v>
       </c>
       <c r="E97" t="n">
-        <v>1.321400971615497</v>
+        <v>1.321273476066672</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1702562534243311</v>
+        <v>0.1699981142884378</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1164843839221365</v>
+        <v>-0.1161821722508468</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2908173615519642</v>
       </c>
       <c r="E98" t="n">
-        <v>1.226413639702365</v>
+        <v>1.226231053484294</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2029596487075955</v>
+        <v>0.2026731772275187</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1373322671837641</v>
+        <v>-0.1370631099140217</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.316944417517272</v>
       </c>
       <c r="E99" t="n">
-        <v>1.139913418891285</v>
+        <v>1.139727684634972</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2240404867991756</v>
+        <v>0.2238043839309805</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1397719968217802</v>
+        <v>-0.1395185797432508</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3383470420692204</v>
       </c>
       <c r="E100" t="n">
-        <v>1.051854919150119</v>
+        <v>1.051692795180625</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2360219203505164</v>
+        <v>0.2357826694440787</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1543175075217199</v>
+        <v>-0.1540609424049478</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3581331486091356</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9613220613502669</v>
+        <v>0.9611898437440776</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2295401096090002</v>
+        <v>0.2292158616700122</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.167876108232604</v>
+        <v>-0.1675990808672551</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.382783979479247</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9005696453254242</v>
+        <v>0.9004783522163887</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2358424821706881</v>
+        <v>0.2355339744229132</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1931107827852966</v>
+        <v>-0.1928132931713708</v>
       </c>
     </row>
   </sheetData>
